--- a/excel/ko.xlsx
+++ b/excel/ko.xlsx
@@ -31,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="705">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
   <si>
     <t>tk.orderstatus.detail.lineItem.contractualDate</t>
   </si>
@@ -2526,7 +2532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2952,15 +2958,15 @@
         <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -3144,15 +3150,15 @@
         <v>151</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
@@ -3176,15 +3182,15 @@
         <v>158</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
@@ -3192,15 +3198,15 @@
         <v>161</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -3456,15 +3462,15 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118">
@@ -3504,15 +3510,15 @@
         <v>237</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124">
@@ -3584,15 +3590,15 @@
         <v>256</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134">
@@ -3624,15 +3630,15 @@
         <v>265</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
@@ -3792,15 +3798,15 @@
         <v>306</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160">
@@ -3856,15 +3862,15 @@
         <v>321</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168">
@@ -3888,15 +3894,15 @@
         <v>328</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>330</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172">
@@ -4008,15 +4014,15 @@
         <v>357</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>124</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>359</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187">
@@ -4048,15 +4054,15 @@
         <v>366</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192">
@@ -4064,12 +4070,12 @@
         <v>369</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>67</v>
@@ -4077,10 +4083,10 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195">
@@ -4112,23 +4118,23 @@
         <v>379</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -4168,15 +4174,15 @@
         <v>391</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>15</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>393</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207">
@@ -4192,15 +4198,15 @@
         <v>396</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210">
@@ -4208,15 +4214,15 @@
         <v>399</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
@@ -4224,15 +4230,15 @@
         <v>402</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>404</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214">
@@ -4320,20 +4326,20 @@
         <v>425</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -4341,10 +4347,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>429</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
@@ -4360,12 +4366,12 @@
         <v>432</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>27</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>29</v>
@@ -4373,7 +4379,7 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>31</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>33</v>
@@ -4389,10 +4395,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>437</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234">
@@ -4496,15 +4502,15 @@
         <v>462</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248">
@@ -4520,28 +4526,28 @@
         <v>467</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>348</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>352</v>
@@ -4549,10 +4555,10 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>472</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254">
@@ -4624,55 +4630,55 @@
         <v>489</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>275</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>496</v>
+        <v>152</v>
       </c>
     </row>
     <row r="269">
@@ -4704,15 +4710,15 @@
         <v>503</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>318</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>505</v>
+        <v>320</v>
       </c>
     </row>
     <row r="274">
@@ -4720,23 +4726,23 @@
         <v>506</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>301</v>
+        <v>507</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>509</v>
+        <v>301</v>
       </c>
     </row>
     <row r="277">
@@ -4744,31 +4750,31 @@
         <v>510</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>303</v>
+        <v>511</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>514</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281">
@@ -4792,15 +4798,15 @@
         <v>519</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
     </row>
     <row r="285">
@@ -4848,15 +4854,15 @@
         <v>532</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>221</v>
+        <v>533</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>534</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292">
@@ -4864,31 +4870,31 @@
         <v>535</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>271</v>
+        <v>536</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>539</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296">
@@ -4904,15 +4910,15 @@
         <v>542</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299">
@@ -4920,15 +4926,15 @@
         <v>545</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="301">
@@ -4952,23 +4958,23 @@
         <v>552</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>65</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>555</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
@@ -4984,31 +4990,31 @@
         <v>558</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>81</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>388</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>562</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311">
@@ -5032,15 +5038,15 @@
         <v>567</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>569</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315">
@@ -5064,23 +5070,23 @@
         <v>574</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>116</v>
+        <v>575</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>577</v>
+        <v>260</v>
       </c>
     </row>
     <row r="320">
@@ -5096,31 +5102,31 @@
         <v>580</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>126</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
     </row>
     <row r="325">
@@ -5128,39 +5134,39 @@
         <v>585</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>332</v>
+        <v>559</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>191</v>
+        <v>358</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>590</v>
+        <v>193</v>
       </c>
     </row>
     <row r="330">
@@ -5168,23 +5174,23 @@
         <v>591</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>27</v>
+        <v>592</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>431</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333">
@@ -5208,15 +5214,15 @@
         <v>599</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>601</v>
+        <v>169</v>
       </c>
     </row>
     <row r="337">
@@ -5224,31 +5230,31 @@
         <v>602</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>441</v>
+        <v>603</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>97</v>
+        <v>443</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>606</v>
+        <v>223</v>
       </c>
     </row>
     <row r="341">
@@ -5272,23 +5278,23 @@
         <v>611</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
     </row>
     <row r="346">
@@ -5296,15 +5302,15 @@
         <v>615</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
     </row>
     <row r="348">
@@ -5328,15 +5334,15 @@
         <v>622</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>13</v>
+        <v>623</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>624</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -5368,23 +5374,23 @@
         <v>631</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>17</v>
+        <v>632</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>634</v>
+        <v>53</v>
       </c>
     </row>
     <row r="358">
@@ -5584,15 +5590,15 @@
         <v>683</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>79</v>
+        <v>684</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>685</v>
+        <v>81</v>
       </c>
     </row>
     <row r="384">
@@ -5608,23 +5614,23 @@
         <v>688</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>23</v>
+        <v>689</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>691</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388">
@@ -5672,12 +5678,20 @@
         <v>702</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>43</v>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B393"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B394"/>
   </ignoredErrors>
 </worksheet>
 </file>